--- a/Data sets/SRG/SRG.xlsx
+++ b/Data sets/SRG/SRG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\Master's thesis\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EliseSchramkowski\Documents\GitHub\thesis\Data sets\SRG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D205DD4-3CCD-4AB2-BF95-432A84C78279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E03A1F0-382B-4798-8063-8184A5A6FBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="2196" windowWidth="15120" windowHeight="16680" xr2:uid="{6A34F014-8491-4486-9539-B866B091EBA7}"/>
+    <workbookView xWindow="1584" yWindow="0" windowWidth="15120" windowHeight="16680" xr2:uid="{6A34F014-8491-4486-9539-B866B091EBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Chicago partly</t>
-  </si>
-  <si>
-    <t>Harvard full</t>
   </si>
   <si>
     <t>Harvard partly</t>
@@ -1500,6 +1497,9 @@
       </rPr>
       <t>(APA). All citation should be done in American Psychological Association (APA) style with reference list organized in alphabetical order by author.</t>
     </r>
+  </si>
+  <si>
+    <t>Harvard full (also called SAGE Harvard or SAGE)</t>
   </si>
 </sst>
 </file>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE86DB32-737B-4117-89F2-EA768DA7B30F}">
   <dimension ref="A1:V149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C120" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -2165,51 +2165,51 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2364,16 +2364,16 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -2398,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -2432,16 +2432,16 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -2466,16 +2466,16 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="8">
@@ -2500,16 +2500,16 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="12.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -2534,16 +2534,16 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="12.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2568,16 +2568,16 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="8"/>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
@@ -2633,16 +2633,16 @@
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
@@ -2667,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -2701,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
@@ -2735,16 +2735,16 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="12.75" customHeight="1">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
@@ -2830,16 +2830,16 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="8"/>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2895,16 +2895,16 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2929,16 +2929,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2963,16 +2963,16 @@
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2997,16 +2997,16 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="12.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3031,16 +3031,16 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3065,16 +3065,16 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="12.75" customHeight="1">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3099,16 +3099,16 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3133,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
@@ -3167,16 +3167,16 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3201,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="12.75" customHeight="1">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3266,16 +3266,16 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3300,15 +3300,15 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3366,16 +3366,16 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3400,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="12.75" customHeight="1">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -3462,16 +3462,16 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40" s="10"/>
       <c r="L40" s="1">
@@ -3482,16 +3482,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V40"/>
     </row>
     <row r="41" spans="1:22" ht="12.75" customHeight="1">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3516,16 +3516,16 @@
         <v>1</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3550,16 +3550,16 @@
         <v>1</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3584,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="12.75" customHeight="1">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3649,16 +3649,16 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="12.75" customHeight="1">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3683,16 +3683,16 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="12.75" customHeight="1">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3717,16 +3717,16 @@
         <v>1</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V47" s="14"/>
     </row>
     <row r="48" spans="1:22" ht="12.75" customHeight="1">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3751,16 +3751,16 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="12.75" customHeight="1">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="11"/>
       <c r="M49" s="11"/>
@@ -3775,15 +3775,15 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:22" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="16"/>
       <c r="L50" s="17">
@@ -3799,15 +3799,15 @@
         <v>0</v>
       </c>
       <c r="T50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="12.75" customHeight="1">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="8">
@@ -3832,16 +3832,16 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V51" s="14"/>
     </row>
     <row r="52" spans="1:22" ht="12.75" customHeight="1">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="8"/>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="12.75" customHeight="1">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="8"/>
@@ -3897,16 +3897,16 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="12.75" customHeight="1">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3931,16 +3931,16 @@
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="12.75" customHeight="1">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3965,16 +3965,16 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="12.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -3999,16 +3999,16 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="12.75" customHeight="1">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4033,16 +4033,16 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4067,16 +4067,16 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" s="15" customFormat="1" ht="12.75" customHeight="1">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4101,16 +4101,16 @@
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" ht="12.75" customHeight="1">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4135,16 +4135,16 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" ht="12.75" customHeight="1">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4169,16 +4169,16 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" ht="12.75" customHeight="1">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4203,16 +4203,16 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" ht="12.75" customHeight="1">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4237,16 +4237,16 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" ht="12.75" customHeight="1">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4271,16 +4271,16 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" ht="12.75" customHeight="1">
       <c r="A65" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="T65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" ht="12.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -4339,16 +4339,16 @@
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" ht="12.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -4373,16 +4373,16 @@
         <v>1</v>
       </c>
       <c r="T67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
@@ -4391,15 +4391,15 @@
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="12.75" customHeight="1">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4424,16 +4424,16 @@
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" ht="12.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" ht="12.75" customHeight="1">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4492,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V71" s="1"/>
     </row>
     <row r="72" spans="1:22" ht="12.75" customHeight="1">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V72" s="1"/>
     </row>
     <row r="73" spans="1:22" ht="12.75" customHeight="1">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4557,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="T73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V73" s="1"/>
     </row>
     <row r="74" spans="1:22" ht="12.75" customHeight="1">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4588,16 +4588,16 @@
         <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" ht="12.75" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="1"/>
@@ -4622,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="T75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" s="14" customFormat="1" ht="12.75" customHeight="1">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -4656,15 +4656,15 @@
         <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="12.75" customHeight="1">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4673,16 +4673,16 @@
         <v>1</v>
       </c>
       <c r="T77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22" ht="12.75" customHeight="1">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4707,16 +4707,16 @@
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22" ht="12.75" customHeight="1">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4740,16 +4740,16 @@
         <v>1</v>
       </c>
       <c r="T79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="U79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22" ht="12.75" customHeight="1">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="8">
@@ -4774,16 +4774,16 @@
         <v>1</v>
       </c>
       <c r="T80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U80" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" ht="12.75" customHeight="1">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="8"/>
@@ -4808,16 +4808,16 @@
         <v>0</v>
       </c>
       <c r="T81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" ht="12.75" customHeight="1">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="8"/>
@@ -4842,16 +4842,16 @@
         <v>1</v>
       </c>
       <c r="T82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V82" s="1"/>
     </row>
     <row r="83" spans="1:22" ht="12.75" customHeight="1">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="8"/>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22" ht="12.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="8"/>
@@ -4910,16 +4910,16 @@
         <v>1</v>
       </c>
       <c r="T84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -4944,14 +4944,14 @@
         <v>0</v>
       </c>
       <c r="T85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U85"/>
       <c r="V85" s="1"/>
     </row>
     <row r="86" spans="1:22" ht="12.75" customHeight="1">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="8"/>
@@ -4976,16 +4976,16 @@
         <v>1</v>
       </c>
       <c r="T86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22" ht="12.75" customHeight="1">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="8"/>
@@ -5009,16 +5009,16 @@
         <v>1</v>
       </c>
       <c r="T87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V87" s="1"/>
     </row>
     <row r="88" spans="1:22" ht="12.75" customHeight="1">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88">
@@ -5043,16 +5043,16 @@
         <v>1</v>
       </c>
       <c r="T88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22" ht="12.75" customHeight="1">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5077,13 +5077,13 @@
         <v>0</v>
       </c>
       <c r="T89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V89" s="1"/>
     </row>
     <row r="90" spans="1:22" ht="12.75" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5108,16 +5108,16 @@
         <v>1</v>
       </c>
       <c r="T90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22" ht="12.75" customHeight="1">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5142,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="T91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V91" s="1"/>
     </row>
     <row r="92" spans="1:22" ht="12.75" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5176,16 +5176,16 @@
         <v>1</v>
       </c>
       <c r="T92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V92" s="1"/>
     </row>
     <row r="93" spans="1:22" ht="12.75" customHeight="1">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5210,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="T93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22" ht="12.75" customHeight="1">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5241,16 +5241,16 @@
         <v>1</v>
       </c>
       <c r="T94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V94" s="1"/>
     </row>
     <row r="95" spans="1:22" ht="12.75" customHeight="1">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="12"/>
@@ -5275,16 +5275,16 @@
         <v>1</v>
       </c>
       <c r="T95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U95" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V95" s="1"/>
     </row>
     <row r="96" spans="1:22" ht="12.75" customHeight="1">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="8"/>
@@ -5309,16 +5309,16 @@
         <v>1</v>
       </c>
       <c r="T96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U96" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V96" s="1"/>
     </row>
     <row r="97" spans="1:22" ht="12.75" customHeight="1">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="8"/>
@@ -5342,16 +5342,16 @@
         <v>1</v>
       </c>
       <c r="T97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V97" s="1"/>
     </row>
     <row r="98" spans="1:22" ht="12.75" customHeight="1">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
@@ -5376,16 +5376,16 @@
         <v>1</v>
       </c>
       <c r="T98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U98" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V98" s="1"/>
     </row>
     <row r="99" spans="1:22" ht="12.75" customHeight="1">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
@@ -5410,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="T99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V99" s="1"/>
     </row>
     <row r="100" spans="1:22" ht="12.75" customHeight="1">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="8"/>
@@ -5441,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V100" s="1"/>
     </row>
     <row r="101" spans="1:22" ht="12.75" customHeight="1">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="8"/>
@@ -5471,16 +5471,16 @@
         <v>1</v>
       </c>
       <c r="T101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V101" s="1"/>
     </row>
     <row r="102" spans="1:22" ht="12.75" customHeight="1">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="8"/>
@@ -5505,16 +5505,16 @@
         <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V102" s="1"/>
     </row>
     <row r="103" spans="1:22" ht="12.75" customHeight="1">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
@@ -5539,16 +5539,16 @@
         <v>1</v>
       </c>
       <c r="T103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V103" s="1"/>
     </row>
     <row r="104" spans="1:22" ht="12.75" customHeight="1">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
@@ -5573,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="T104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V104" s="1"/>
     </row>
     <row r="105" spans="1:22" ht="12.75" customHeight="1">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="8"/>
@@ -5604,33 +5604,33 @@
         <v>1</v>
       </c>
       <c r="T105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V105" s="1"/>
     </row>
     <row r="106" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" s="8"/>
       <c r="R106" s="1">
         <v>1</v>
       </c>
       <c r="S106" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U106"/>
       <c r="V106" s="27"/>
     </row>
     <row r="107" spans="1:22" ht="12.75" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5655,16 +5655,16 @@
         <v>1</v>
       </c>
       <c r="T107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V107" s="1"/>
     </row>
     <row r="108" spans="1:22" ht="12.75" customHeight="1">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5688,16 +5688,16 @@
         <v>1</v>
       </c>
       <c r="T108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V108" s="1"/>
     </row>
     <row r="109" spans="1:22" ht="12.75" customHeight="1">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5722,16 +5722,16 @@
         <v>1</v>
       </c>
       <c r="T109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V109" s="1"/>
     </row>
     <row r="110" spans="1:22" ht="12.75" customHeight="1">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5756,16 +5756,16 @@
         <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V110" s="1"/>
     </row>
     <row r="111" spans="1:22" ht="12.75" customHeight="1">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5790,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="T111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V111" s="1"/>
     </row>
     <row r="112" spans="1:22" ht="12.75" customHeight="1">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5823,16 +5823,16 @@
         <v>0</v>
       </c>
       <c r="T112" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U112" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V112" s="1"/>
     </row>
     <row r="113" spans="1:22" ht="12.75" customHeight="1">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5857,16 +5857,16 @@
         <v>1</v>
       </c>
       <c r="T113" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V113" s="1"/>
     </row>
     <row r="114" spans="1:22" ht="12.75" customHeight="1">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5891,16 +5891,16 @@
         <v>1</v>
       </c>
       <c r="T114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V114" s="1"/>
     </row>
     <row r="115" spans="1:22" ht="12.75" customHeight="1">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5925,16 +5925,16 @@
         <v>1</v>
       </c>
       <c r="T115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V115" s="1"/>
     </row>
     <row r="116" spans="1:22" ht="12.75" customHeight="1">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5959,16 +5959,16 @@
         <v>1</v>
       </c>
       <c r="T116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U116" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V116" s="1"/>
     </row>
     <row r="117" spans="1:22" ht="12.75" customHeight="1">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5993,16 +5993,16 @@
         <v>1</v>
       </c>
       <c r="T117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V117" s="1"/>
     </row>
     <row r="118" spans="1:22" ht="12.75" customHeight="1">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6027,16 +6027,16 @@
         <v>1</v>
       </c>
       <c r="T118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V118" s="1"/>
     </row>
     <row r="119" spans="1:22" ht="12.75" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6061,16 +6061,16 @@
         <v>1</v>
       </c>
       <c r="T119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="V119" s="1"/>
     </row>
     <row r="120" spans="1:22" ht="12.75" customHeight="1">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1">
@@ -6095,16 +6095,16 @@
         <v>1</v>
       </c>
       <c r="T120" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U120" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V120" s="1"/>
     </row>
     <row r="121" spans="1:22" ht="12.75" customHeight="1">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6129,16 +6129,16 @@
         <v>1</v>
       </c>
       <c r="T121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V121" s="1"/>
     </row>
     <row r="122" spans="1:22" ht="12.75" customHeight="1">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6163,16 +6163,16 @@
         <v>1</v>
       </c>
       <c r="T122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V122" s="1"/>
     </row>
     <row r="123" spans="1:22" ht="12.75" customHeight="1">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="14"/>
@@ -6197,16 +6197,16 @@
         <v>1</v>
       </c>
       <c r="T123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U123" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V123" s="1"/>
     </row>
     <row r="124" spans="1:22" ht="12.75" customHeight="1">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6231,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="T124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V124" s="1"/>
     </row>
     <row r="125" spans="1:22" ht="12.75" customHeight="1">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6262,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="T125" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V125" s="1"/>
     </row>
     <row r="126" spans="1:22" ht="12.75" customHeight="1">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6293,16 +6293,16 @@
         <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V126" s="1"/>
     </row>
     <row r="127" spans="1:22" ht="12.75" customHeight="1">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6327,16 +6327,16 @@
         <v>1</v>
       </c>
       <c r="T127" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U127" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V127" s="1"/>
     </row>
     <row r="128" spans="1:22" ht="12.75" customHeight="1">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="33"/>
@@ -6348,16 +6348,16 @@
         <v>1</v>
       </c>
       <c r="T128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U128" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="V128" s="1"/>
     </row>
     <row r="129" spans="1:22" ht="12.75" customHeight="1">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6381,16 +6381,16 @@
         <v>1</v>
       </c>
       <c r="T129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U129" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="V129" s="1"/>
     </row>
     <row r="130" spans="1:22" ht="12.75" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -6415,16 +6415,16 @@
         <v>1</v>
       </c>
       <c r="T130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V130" s="1"/>
     </row>
     <row r="131" spans="1:22" ht="12.75" customHeight="1">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="8"/>
@@ -6449,16 +6449,16 @@
         <v>1</v>
       </c>
       <c r="T131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V131" s="1"/>
     </row>
     <row r="132" spans="1:22" ht="12.75" customHeight="1">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="8"/>
@@ -6483,16 +6483,16 @@
         <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V132" s="1"/>
     </row>
     <row r="133" spans="1:22" ht="12.75" customHeight="1">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="8"/>
@@ -6517,16 +6517,16 @@
         <v>0</v>
       </c>
       <c r="T133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U133" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V133" s="1"/>
     </row>
     <row r="134" spans="1:22" ht="12.75" customHeight="1">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1">
@@ -6551,16 +6551,16 @@
         <v>1</v>
       </c>
       <c r="T134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V134" s="1"/>
     </row>
     <row r="135" spans="1:22" ht="12.75" customHeight="1">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6585,16 +6585,16 @@
         <v>1</v>
       </c>
       <c r="T135" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U135" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V135" s="1"/>
     </row>
     <row r="136" spans="1:22" ht="12.75" customHeight="1">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6619,16 +6619,16 @@
         <v>1</v>
       </c>
       <c r="T136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U136" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V136" s="1"/>
     </row>
     <row r="137" spans="1:22" ht="12.75" customHeight="1">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6653,16 +6653,16 @@
         <v>1</v>
       </c>
       <c r="T137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U137" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V137" s="1"/>
     </row>
     <row r="138" spans="1:22" ht="12.75" customHeight="1">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6687,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V138" s="1"/>
     </row>
     <row r="139" spans="1:22" ht="12.75" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6718,16 +6718,16 @@
         <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V139" s="1"/>
     </row>
     <row r="140" spans="1:22" ht="12.75" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -6752,16 +6752,16 @@
         <v>1</v>
       </c>
       <c r="T140" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U140" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="V140" s="1"/>
     </row>
     <row r="141" spans="1:22" ht="12.75" customHeight="1">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6786,16 +6786,16 @@
         <v>1</v>
       </c>
       <c r="T141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U141" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V141" s="1"/>
     </row>
     <row r="142" spans="1:22" ht="12.75" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
@@ -6820,16 +6820,16 @@
         <v>1</v>
       </c>
       <c r="T142" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U142" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V142" s="1"/>
     </row>
     <row r="143" spans="1:22" ht="12.75" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -6854,16 +6854,16 @@
         <v>1</v>
       </c>
       <c r="T143" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U143" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V143" s="1"/>
     </row>
     <row r="144" spans="1:22" ht="12.75" customHeight="1">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V144" s="1"/>
     </row>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="149" spans="2:20" ht="12.75" customHeight="1">
       <c r="T149" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
